--- a/output/sell_side_sentiment_analysis.xlsx
+++ b/output/sell_side_sentiment_analysis.xlsx
@@ -13,17 +13,15 @@
     <sheet name="Risk_VADER" sheetId="4" r:id="rId4"/>
     <sheet name="Climate_FINBERT" sheetId="5" r:id="rId5"/>
     <sheet name="Climate_VADER" sheetId="6" r:id="rId6"/>
-    <sheet name="PGR_FINBERT" sheetId="7" r:id="rId7"/>
-    <sheet name="PGR_VADER" sheetId="8" r:id="rId8"/>
-    <sheet name="Overall_FINBERT" sheetId="9" r:id="rId9"/>
-    <sheet name="Overall_VADER" sheetId="10" r:id="rId10"/>
+    <sheet name="Overall_FINBERT" sheetId="7" r:id="rId7"/>
+    <sheet name="Overall_VADER" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="10">
   <si>
     <t>TICKER</t>
   </si>
@@ -43,6 +41,9 @@
     <t>KNSL</t>
   </si>
   <si>
+    <t>PGR</t>
+  </si>
+  <si>
     <t>SKWD</t>
   </si>
   <si>
@@ -50,9 +51,6 @@
   </si>
   <si>
     <t>WRB</t>
-  </si>
-  <si>
-    <t>PGR</t>
   </si>
 </sst>
 </file>
@@ -410,13 +408,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -435,8 +433,11 @@
       <c r="F1" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -455,8 +456,11 @@
       <c r="F2">
         <v>0.2857139569618172</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -475,8 +479,11 @@
       <c r="F3">
         <v>0.1178069764577642</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -495,8 +502,11 @@
       <c r="F4">
         <v>0.1239861244178435</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -515,8 +525,11 @@
       <c r="F5">
         <v>0.1433876403869767</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -535,8 +548,11 @@
       <c r="F6">
         <v>0.049193757045171</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -544,56 +560,88 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.1989004630595446</v>
       </c>
       <c r="D7">
-        <v>0.1999955248370497</v>
+        <v>0.1603428598712472</v>
       </c>
       <c r="E7">
-        <v>0.2981757631763496</v>
+        <v>0.265474157333374</v>
       </c>
       <c r="F7">
-        <v>0.16511223823226</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.03469647301567926</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.3130371912521802</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1606619212248262</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>0.116842811686026</v>
+        <v>0.1999955248370497</v>
       </c>
       <c r="E8">
-        <v>0.09157785428490402</v>
+        <v>0.2981757631763496</v>
       </c>
       <c r="F8">
-        <v>0.1468298386876196</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.16511223823226</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>0.3130371912521802</v>
       </c>
       <c r="C9">
+        <v>0.1606619212248262</v>
+      </c>
+      <c r="D9">
+        <v>0.116842811686026</v>
+      </c>
+      <c r="E9">
+        <v>0.09157785428490402</v>
+      </c>
+      <c r="F9">
+        <v>0.1468298386876196</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
         <v>0.2213170937749044</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>0.1622900597806941</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>0.1686594321565303</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>0.2333457601160904</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -601,7 +649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -643,13 +691,13 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1041324200913242</v>
+        <v>0.1058476190476191</v>
       </c>
       <c r="E2">
-        <v>0.09355454545454546</v>
+        <v>0.09420183486238533</v>
       </c>
       <c r="F2">
-        <v>0.09475877192982457</v>
+        <v>0.09552036199095022</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -663,16 +711,16 @@
         <v>0.07679999999999999</v>
       </c>
       <c r="C3">
-        <v>0.1275238095238095</v>
+        <v>0.1487777777777778</v>
       </c>
       <c r="D3">
-        <v>0.1411891891891892</v>
+        <v>0.1451111111111111</v>
       </c>
       <c r="E3">
-        <v>0.1169583333333333</v>
+        <v>0.1275909090909091</v>
       </c>
       <c r="F3">
-        <v>0.08473913043478261</v>
+        <v>0.0783529411764706</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -686,7 +734,7 @@
         <v>0.432</v>
       </c>
       <c r="C4">
-        <v>0.1338461538461538</v>
+        <v>0.1319166666666667</v>
       </c>
       <c r="D4">
         <v>0.11025</v>
@@ -695,7 +743,7 @@
         <v>0.09045454545454545</v>
       </c>
       <c r="F4">
-        <v>0.09568181818181819</v>
+        <v>0.08489473684210526</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -706,7 +754,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0.092</v>
+        <v>0</v>
       </c>
       <c r="C5">
         <v>0.1122142857142857</v>
@@ -715,7 +763,7 @@
         <v>0.108625</v>
       </c>
       <c r="E5">
-        <v>0.1023333333333333</v>
+        <v>0.09554545454545454</v>
       </c>
       <c r="F5">
         <v>0.118</v>
@@ -735,13 +783,13 @@
         <v>0.1503333333333333</v>
       </c>
       <c r="D6">
-        <v>0.1711290322580645</v>
+        <v>0.171103448275862</v>
       </c>
       <c r="E6">
         <v>0.13956</v>
       </c>
       <c r="F6">
-        <v>0.1433043478260869</v>
+        <v>0.1485714285714286</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -749,30 +797,30 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04088561983471074</v>
+        <v>0.06443749999999999</v>
       </c>
       <c r="D7">
-        <v>0.03990976882923191</v>
+        <v>0.14375</v>
       </c>
       <c r="E7">
-        <v>0.04234168781725889</v>
+        <v>0.21526</v>
       </c>
       <c r="F7">
-        <v>0.04426326671261199</v>
+        <v>0.1005925925925926</v>
       </c>
       <c r="G7">
-        <v>0.04520875420875421</v>
+        <v>0.1062</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -787,7 +835,7 @@
         <v>0.1873030303030303</v>
       </c>
       <c r="F8">
-        <v>0.07439999999999999</v>
+        <v>0.07188888888888888</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -795,22 +843,22 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>0.189027027027027</v>
+        <v>0.1991754385964912</v>
       </c>
       <c r="C9">
-        <v>0.14278125</v>
+        <v>0.1497894736842105</v>
       </c>
       <c r="D9">
-        <v>0.09722950819672131</v>
+        <v>0.1043018867924528</v>
       </c>
       <c r="E9">
-        <v>0.08511320754716982</v>
+        <v>0.08564705882352942</v>
       </c>
       <c r="F9">
-        <v>0.08986000000000001</v>
+        <v>0.08341025641025641</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -818,7 +866,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -827,209 +875,16 @@
         <v>0.1286078431372549</v>
       </c>
       <c r="D10">
-        <v>0.08975</v>
+        <v>0.09178333333333333</v>
       </c>
       <c r="E10">
         <v>0.05906422018348623</v>
       </c>
       <c r="F10">
-        <v>0.07394017094017094</v>
+        <v>0.07287850467289719</v>
       </c>
       <c r="G10">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2020</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.1058476190476191</v>
-      </c>
-      <c r="E2">
-        <v>0.09420183486238533</v>
-      </c>
-      <c r="F2">
-        <v>0.09552036199095022</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>0.07679999999999999</v>
-      </c>
-      <c r="C3">
-        <v>0.1487777777777778</v>
-      </c>
-      <c r="D3">
-        <v>0.1451111111111111</v>
-      </c>
-      <c r="E3">
-        <v>0.1275909090909091</v>
-      </c>
-      <c r="F3">
-        <v>0.0783529411764706</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>0.432</v>
-      </c>
-      <c r="C4">
-        <v>0.1319166666666667</v>
-      </c>
-      <c r="D4">
-        <v>0.11025</v>
-      </c>
-      <c r="E4">
-        <v>0.09045454545454545</v>
-      </c>
-      <c r="F4">
-        <v>0.08489473684210526</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0.1122142857142857</v>
-      </c>
-      <c r="D5">
-        <v>0.108625</v>
-      </c>
-      <c r="E5">
-        <v>0.09554545454545454</v>
-      </c>
-      <c r="F5">
-        <v>0.118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0.1503333333333333</v>
-      </c>
-      <c r="D6">
-        <v>0.171103448275862</v>
-      </c>
-      <c r="E6">
-        <v>0.13956</v>
-      </c>
-      <c r="F6">
-        <v>0.1485714285714286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0.0224</v>
-      </c>
-      <c r="E7">
-        <v>0.1873030303030303</v>
-      </c>
-      <c r="F7">
-        <v>0.07188888888888888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0.1991754385964912</v>
-      </c>
-      <c r="C8">
-        <v>0.1497894736842105</v>
-      </c>
-      <c r="D8">
-        <v>0.1043018867924528</v>
-      </c>
-      <c r="E8">
-        <v>0.08564705882352942</v>
-      </c>
-      <c r="F8">
-        <v>0.08341025641025641</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0.1286078431372549</v>
-      </c>
-      <c r="D9">
-        <v>0.09178333333333333</v>
-      </c>
-      <c r="E9">
-        <v>0.05906422018348623</v>
-      </c>
-      <c r="F9">
-        <v>0.07287850467289719</v>
       </c>
     </row>
   </sheetData>
@@ -1039,7 +894,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1098,13 +953,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.0006948263973746966</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>0.9522165060043336</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1118,7 +973,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.0006948263973746966</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1127,6 +982,23 @@
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.8471770286560059</v>
       </c>
     </row>
@@ -1137,7 +1009,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1196,13 +1068,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
-        <v>0.1725</v>
+        <v>0</v>
       </c>
       <c r="C4">
-        <v>0.0455</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1216,15 +1088,32 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>0.1725</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.0455</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
         <v>0.07099999999999999</v>
       </c>
     </row>
@@ -1235,13 +1124,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1260,8 +1149,11 @@
       <c r="F1" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1280,8 +1172,11 @@
       <c r="F2">
         <v>0.6959397525837024</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1300,8 +1195,11 @@
       <c r="F3">
         <v>0.1671900270621773</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1320,8 +1218,11 @@
       <c r="F4">
         <v>0.08509322729495204</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1340,8 +1241,11 @@
       <c r="F5">
         <v>0.5008150233188643</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1349,56 +1253,88 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.9400741060574851</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.5214599728584289</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.838553175330162</v>
       </c>
       <c r="F6">
-        <v>0.4860588610172272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.5295658946037293</v>
+      </c>
+      <c r="G6">
+        <v>0.4745567739009857</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.5486165176835957</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.5548419049134411</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1669864750529377</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.008018487285880799</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.3186445496876943</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.4860588610172272</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.5486165176835957</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.5548419049134411</v>
       </c>
       <c r="D8">
+        <v>0.1669864750529377</v>
+      </c>
+      <c r="E8">
+        <v>0.008018487285880799</v>
+      </c>
+      <c r="F8">
+        <v>0.3186445496876943</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>1.02874981089407E-07</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0.2962262430273894</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1408,13 +1344,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1433,8 +1369,11 @@
       <c r="F1" s="1">
         <v>2024</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1453,8 +1392,11 @@
       <c r="F2">
         <v>0.06533333333333334</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1473,8 +1415,11 @@
       <c r="F3">
         <v>0.1028333333333333</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -1493,8 +1438,11 @@
       <c r="F4">
         <v>0.164</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1513,8 +1461,11 @@
       <c r="F5">
         <v>0.08799999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -1522,56 +1473,88 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.1246666666666667</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>0.1234</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.189</v>
       </c>
       <c r="F6">
-        <v>0.097</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.08459999999999999</v>
+      </c>
+      <c r="G6">
+        <v>0.173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.1454545454545455</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.08571428571428573</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>0.052</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>0.07149999999999999</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>0.1127272727272727</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.097</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>0.1454545454545455</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>0.08571428571428573</v>
       </c>
       <c r="D8">
+        <v>0.052</v>
+      </c>
+      <c r="E8">
+        <v>0.07149999999999999</v>
+      </c>
+      <c r="F8">
+        <v>0.1127272727272727</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
         <v>0.02875</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>0.08688888888888889</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1580,112 +1563,6 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1">
-        <v>2021</v>
-      </c>
-      <c r="C1" s="1">
-        <v>2022</v>
-      </c>
-      <c r="D1" s="1">
-        <v>2023</v>
-      </c>
-      <c r="E1" s="1">
-        <v>2024</v>
-      </c>
-      <c r="F1" s="1">
-        <v>2025</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>0.04088561983471074</v>
-      </c>
-      <c r="C2">
-        <v>0.03990976882923191</v>
-      </c>
-      <c r="D2">
-        <v>0.04234168781725889</v>
-      </c>
-      <c r="E2">
-        <v>0.04426326671261199</v>
-      </c>
-      <c r="F2">
-        <v>0.04520875420875421</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G10"/>
   <sheetViews>
@@ -1833,30 +1710,30 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>0.262429632459368</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>0.215358734915131</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>0.3079244549627657</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>0.1120198201388121</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.1355876496859959</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1879,7 +1756,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>0.3227306831659199</v>
@@ -1902,7 +1779,7 @@
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -1918,6 +1795,249 @@
       </c>
       <c r="F10">
         <v>0.2434291414386683</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>2020</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2021</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2022</v>
+      </c>
+      <c r="E1" s="1">
+        <v>2023</v>
+      </c>
+      <c r="F1" s="1">
+        <v>2024</v>
+      </c>
+      <c r="G1" s="1">
+        <v>2025</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0.1041324200913242</v>
+      </c>
+      <c r="E2">
+        <v>0.09355454545454546</v>
+      </c>
+      <c r="F2">
+        <v>0.09475877192982457</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>0.07679999999999999</v>
+      </c>
+      <c r="C3">
+        <v>0.1275238095238095</v>
+      </c>
+      <c r="D3">
+        <v>0.1411891891891892</v>
+      </c>
+      <c r="E3">
+        <v>0.1169583333333333</v>
+      </c>
+      <c r="F3">
+        <v>0.08473913043478261</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0.432</v>
+      </c>
+      <c r="C4">
+        <v>0.1338461538461538</v>
+      </c>
+      <c r="D4">
+        <v>0.11025</v>
+      </c>
+      <c r="E4">
+        <v>0.09045454545454545</v>
+      </c>
+      <c r="F4">
+        <v>0.09568181818181819</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>0.092</v>
+      </c>
+      <c r="C5">
+        <v>0.1122142857142857</v>
+      </c>
+      <c r="D5">
+        <v>0.108625</v>
+      </c>
+      <c r="E5">
+        <v>0.1023333333333333</v>
+      </c>
+      <c r="F5">
+        <v>0.118</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0.1503333333333333</v>
+      </c>
+      <c r="D6">
+        <v>0.1711290322580645</v>
+      </c>
+      <c r="E6">
+        <v>0.13956</v>
+      </c>
+      <c r="F6">
+        <v>0.1433043478260869</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0.0696</v>
+      </c>
+      <c r="D7">
+        <v>0.1467368421052631</v>
+      </c>
+      <c r="E7">
+        <v>0.2133148148148148</v>
+      </c>
+      <c r="F7">
+        <v>0.09809375000000001</v>
+      </c>
+      <c r="G7">
+        <v>0.1252857142857143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.0224</v>
+      </c>
+      <c r="E8">
+        <v>0.1873030303030303</v>
+      </c>
+      <c r="F8">
+        <v>0.07439999999999999</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0.189027027027027</v>
+      </c>
+      <c r="C9">
+        <v>0.14278125</v>
+      </c>
+      <c r="D9">
+        <v>0.09722950819672131</v>
+      </c>
+      <c r="E9">
+        <v>0.08511320754716982</v>
+      </c>
+      <c r="F9">
+        <v>0.08986000000000001</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0.1286078431372549</v>
+      </c>
+      <c r="D10">
+        <v>0.08975</v>
+      </c>
+      <c r="E10">
+        <v>0.05906422018348623</v>
+      </c>
+      <c r="F10">
+        <v>0.07394017094017094</v>
       </c>
       <c r="G10">
         <v>0</v>
